--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1269.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1269.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.378465258943456</v>
+        <v>1.174232602119446</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.17740797996521</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>10.43294429779053</v>
       </c>
       <c r="D1">
-        <v>1.282913657226552</v>
+        <v>2.562594652175903</v>
       </c>
       <c r="E1">
-        <v>0.8356219188694309</v>
+        <v>1.249155879020691</v>
       </c>
     </row>
   </sheetData>
